--- a/adaBoost/file.xlsx
+++ b/adaBoost/file.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RENT\Documents\MATLAB\deepLearning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ספיר יהודה\Satellite-communication\adaBoost\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05558F52-7AC1-4620-AD7F-F1213A68BF0A}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,8 +28,8 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="pop_failures" type="6" refreshedVersion="5" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="pop_failures" type="6" refreshedVersion="5" background="1" saveData="1">
     <textPr sourceFile="C:\Users\RENT\Documents\MATLAB\deepLearning\pop_failures.txt" tab="0" space="1" comma="1" consecutive="1">
       <textFields count="22">
         <textField/>
@@ -128,7 +129,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -178,7 +179,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pop_failures" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="pop_failures" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -443,32 +444,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V541"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="O277" workbookViewId="0">
+      <selection activeCell="Z287" sqref="Z287"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="11" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.25" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.08203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="1.875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="2.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -533,7 +534,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>1</v>
       </c>
@@ -595,10 +596,10 @@
         <v>0.86989303813574603</v>
       </c>
       <c r="V2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>1</v>
       </c>
@@ -663,7 +664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>1</v>
       </c>
@@ -728,7 +729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>1</v>
       </c>
@@ -793,7 +794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>1</v>
       </c>
@@ -858,7 +859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>1</v>
       </c>
@@ -923,7 +924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>1</v>
       </c>
@@ -988,7 +989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>1</v>
       </c>
@@ -1053,7 +1054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>1</v>
       </c>
@@ -1118,7 +1119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>1</v>
       </c>
@@ -1183,7 +1184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>1</v>
       </c>
@@ -1248,7 +1249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>1</v>
       </c>
@@ -1313,7 +1314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>1</v>
       </c>
@@ -1375,10 +1376,10 @@
         <v>0.531368854744101</v>
       </c>
       <c r="V14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>1</v>
       </c>
@@ -1443,7 +1444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>1</v>
       </c>
@@ -1508,7 +1509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>1</v>
       </c>
@@ -1573,7 +1574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>1</v>
       </c>
@@ -1638,7 +1639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>1</v>
       </c>
@@ -1703,7 +1704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>1</v>
       </c>
@@ -1768,7 +1769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>1</v>
       </c>
@@ -1833,7 +1834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>1</v>
       </c>
@@ -1898,7 +1899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>1</v>
       </c>
@@ -1963,7 +1964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>1</v>
       </c>
@@ -2028,7 +2029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>1</v>
       </c>
@@ -2093,7 +2094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>1</v>
       </c>
@@ -2158,7 +2159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>1</v>
       </c>
@@ -2223,7 +2224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B28">
         <v>1</v>
       </c>
@@ -2288,7 +2289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B29">
         <v>1</v>
       </c>
@@ -2353,7 +2354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B30">
         <v>1</v>
       </c>
@@ -2418,7 +2419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B31">
         <v>1</v>
       </c>
@@ -2483,7 +2484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B32">
         <v>1</v>
       </c>
@@ -2548,7 +2549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B33">
         <v>1</v>
       </c>
@@ -2613,7 +2614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B34">
         <v>1</v>
       </c>
@@ -2678,7 +2679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B35">
         <v>1</v>
       </c>
@@ -2743,7 +2744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B36">
         <v>1</v>
       </c>
@@ -2808,7 +2809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B37">
         <v>1</v>
       </c>
@@ -2873,7 +2874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B38">
         <v>1</v>
       </c>
@@ -2938,7 +2939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B39">
         <v>1</v>
       </c>
@@ -3003,7 +3004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B40">
         <v>1</v>
       </c>
@@ -3068,7 +3069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B41">
         <v>1</v>
       </c>
@@ -3133,7 +3134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B42">
         <v>1</v>
       </c>
@@ -3198,7 +3199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B43">
         <v>1</v>
       </c>
@@ -3263,7 +3264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B44">
         <v>1</v>
       </c>
@@ -3328,7 +3329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B45">
         <v>1</v>
       </c>
@@ -3390,10 +3391,10 @@
         <v>0.206474048663706</v>
       </c>
       <c r="V45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B46">
         <v>1</v>
       </c>
@@ -3458,7 +3459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B47">
         <v>1</v>
       </c>
@@ -3523,7 +3524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B48">
         <v>1</v>
       </c>
@@ -3588,7 +3589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B49">
         <v>1</v>
       </c>
@@ -3653,7 +3654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B50">
         <v>1</v>
       </c>
@@ -3715,10 +3716,10 @@
         <v>3.1839535675114998E-3</v>
       </c>
       <c r="V50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="2:22" x14ac:dyDescent="0.2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="51" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B51">
         <v>1</v>
       </c>
@@ -3783,7 +3784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B52">
         <v>1</v>
       </c>
@@ -3848,7 +3849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B53">
         <v>1</v>
       </c>
@@ -3913,7 +3914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B54">
         <v>1</v>
       </c>
@@ -3978,7 +3979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B55">
         <v>1</v>
       </c>
@@ -4043,7 +4044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B56">
         <v>1</v>
       </c>
@@ -4108,7 +4109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B57">
         <v>1</v>
       </c>
@@ -4173,7 +4174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B58">
         <v>1</v>
       </c>
@@ -4238,7 +4239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B59">
         <v>1</v>
       </c>
@@ -4300,10 +4301,10 @@
         <v>0.94912227763949597</v>
       </c>
       <c r="V59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="2:22" x14ac:dyDescent="0.2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="60" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B60">
         <v>1</v>
       </c>
@@ -4368,7 +4369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B61">
         <v>1</v>
       </c>
@@ -4433,7 +4434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B62">
         <v>1</v>
       </c>
@@ -4498,7 +4499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B63">
         <v>1</v>
       </c>
@@ -4563,7 +4564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B64">
         <v>1</v>
       </c>
@@ -4625,10 +4626,10 @@
         <v>0.25047649868712202</v>
       </c>
       <c r="V64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B65">
         <v>1</v>
       </c>
@@ -4693,7 +4694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B66">
         <v>1</v>
       </c>
@@ -4758,7 +4759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B67">
         <v>1</v>
       </c>
@@ -4823,7 +4824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B68">
         <v>1</v>
       </c>
@@ -4888,7 +4889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B69">
         <v>1</v>
       </c>
@@ -4953,7 +4954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B70">
         <v>1</v>
       </c>
@@ -5018,7 +5019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B71">
         <v>1</v>
       </c>
@@ -5083,7 +5084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B72">
         <v>1</v>
       </c>
@@ -5148,7 +5149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B73">
         <v>1</v>
       </c>
@@ -5213,7 +5214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B74">
         <v>1</v>
       </c>
@@ -5278,7 +5279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B75">
         <v>1</v>
       </c>
@@ -5343,7 +5344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B76">
         <v>1</v>
       </c>
@@ -5408,7 +5409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B77">
         <v>1</v>
       </c>
@@ -5473,7 +5474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B78">
         <v>1</v>
       </c>
@@ -5538,7 +5539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B79">
         <v>1</v>
       </c>
@@ -5600,10 +5601,10 @@
         <v>0.27230346222511598</v>
       </c>
       <c r="V79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="80" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B80">
         <v>1</v>
       </c>
@@ -5668,7 +5669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B81">
         <v>1</v>
       </c>
@@ -5733,7 +5734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B82">
         <v>1</v>
       </c>
@@ -5798,7 +5799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B83">
         <v>1</v>
       </c>
@@ -5863,7 +5864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B84">
         <v>1</v>
       </c>
@@ -5928,7 +5929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B85">
         <v>1</v>
       </c>
@@ -5993,7 +5994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B86">
         <v>1</v>
       </c>
@@ -6055,10 +6056,10 @@
         <v>0.50475635588971002</v>
       </c>
       <c r="V86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="2:22" x14ac:dyDescent="0.2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="87" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B87">
         <v>1</v>
       </c>
@@ -6120,10 +6121,10 @@
         <v>2.1074253532828501E-2</v>
       </c>
       <c r="V87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="2:22" x14ac:dyDescent="0.2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="88" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B88">
         <v>1</v>
       </c>
@@ -6188,7 +6189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B89">
         <v>1</v>
       </c>
@@ -6253,7 +6254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B90">
         <v>1</v>
       </c>
@@ -6318,7 +6319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B91">
         <v>1</v>
       </c>
@@ -6383,7 +6384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B92">
         <v>1</v>
       </c>
@@ -6448,7 +6449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B93">
         <v>1</v>
       </c>
@@ -6513,7 +6514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B94">
         <v>1</v>
       </c>
@@ -6575,10 +6576,10 @@
         <v>0.99104051970773199</v>
       </c>
       <c r="V94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="2:22" x14ac:dyDescent="0.2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="95" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B95">
         <v>1</v>
       </c>
@@ -6643,7 +6644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B96">
         <v>1</v>
       </c>
@@ -6705,10 +6706,10 @@
         <v>0.77529645818544302</v>
       </c>
       <c r="V96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="2:22" x14ac:dyDescent="0.2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="97" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B97">
         <v>1</v>
       </c>
@@ -6773,7 +6774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B98">
         <v>1</v>
       </c>
@@ -6838,7 +6839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B99">
         <v>1</v>
       </c>
@@ -6903,7 +6904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B100">
         <v>1</v>
       </c>
@@ -6968,7 +6969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B101">
         <v>1</v>
       </c>
@@ -7033,7 +7034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B102">
         <v>1</v>
       </c>
@@ -7098,7 +7099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B103">
         <v>1</v>
       </c>
@@ -7163,7 +7164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B104">
         <v>1</v>
       </c>
@@ -7228,7 +7229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B105">
         <v>1</v>
       </c>
@@ -7293,7 +7294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B106">
         <v>1</v>
       </c>
@@ -7358,7 +7359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B107">
         <v>1</v>
       </c>
@@ -7423,7 +7424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B108">
         <v>1</v>
       </c>
@@ -7488,7 +7489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B109">
         <v>1</v>
       </c>
@@ -7553,7 +7554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B110">
         <v>1</v>
       </c>
@@ -7615,10 +7616,10 @@
         <v>7.8373514690125906E-2</v>
       </c>
       <c r="V110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="2:22" x14ac:dyDescent="0.2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="111" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B111">
         <v>1</v>
       </c>
@@ -7683,7 +7684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B112">
         <v>1</v>
       </c>
@@ -7748,7 +7749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B113">
         <v>1</v>
       </c>
@@ -7813,7 +7814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B114">
         <v>1</v>
       </c>
@@ -7878,7 +7879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B115">
         <v>1</v>
       </c>
@@ -7943,7 +7944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B116">
         <v>1</v>
       </c>
@@ -8005,10 +8006,10 @@
         <v>0.494947566556382</v>
       </c>
       <c r="V116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="2:22" x14ac:dyDescent="0.2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="117" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B117">
         <v>1</v>
       </c>
@@ -8073,7 +8074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B118">
         <v>1</v>
       </c>
@@ -8135,10 +8136,10 @@
         <v>0.59275956205221703</v>
       </c>
       <c r="V118">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="2:22" x14ac:dyDescent="0.2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="119" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B119">
         <v>1</v>
       </c>
@@ -8203,7 +8204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B120">
         <v>1</v>
       </c>
@@ -8268,7 +8269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B121">
         <v>1</v>
       </c>
@@ -8333,7 +8334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B122">
         <v>1</v>
       </c>
@@ -8398,7 +8399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B123">
         <v>1</v>
       </c>
@@ -8463,7 +8464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B124">
         <v>1</v>
       </c>
@@ -8528,7 +8529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B125">
         <v>1</v>
       </c>
@@ -8593,7 +8594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B126">
         <v>1</v>
       </c>
@@ -8658,7 +8659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B127">
         <v>1</v>
       </c>
@@ -8723,7 +8724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B128">
         <v>1</v>
       </c>
@@ -8788,7 +8789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B129">
         <v>1</v>
       </c>
@@ -8853,7 +8854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B130">
         <v>1</v>
       </c>
@@ -8918,7 +8919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B131">
         <v>1</v>
       </c>
@@ -8983,7 +8984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B132">
         <v>1</v>
       </c>
@@ -9048,7 +9049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B133">
         <v>1</v>
       </c>
@@ -9113,7 +9114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B134">
         <v>1</v>
       </c>
@@ -9178,7 +9179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B135">
         <v>1</v>
       </c>
@@ -9240,10 +9241,10 @@
         <v>0.76926483783948496</v>
       </c>
       <c r="V135">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="2:22" x14ac:dyDescent="0.2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="136" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B136">
         <v>1</v>
       </c>
@@ -9308,7 +9309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B137">
         <v>1</v>
       </c>
@@ -9373,7 +9374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B138">
         <v>1</v>
       </c>
@@ -9438,7 +9439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B139">
         <v>1</v>
       </c>
@@ -9503,7 +9504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B140">
         <v>1</v>
       </c>
@@ -9568,7 +9569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B141">
         <v>1</v>
       </c>
@@ -9633,7 +9634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B142">
         <v>1</v>
       </c>
@@ -9698,7 +9699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B143">
         <v>1</v>
       </c>
@@ -9763,7 +9764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B144">
         <v>1</v>
       </c>
@@ -9828,7 +9829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B145">
         <v>1</v>
       </c>
@@ -9893,7 +9894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B146">
         <v>1</v>
       </c>
@@ -9958,7 +9959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B147">
         <v>1</v>
       </c>
@@ -10023,7 +10024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B148">
         <v>1</v>
       </c>
@@ -10088,7 +10089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B149">
         <v>1</v>
       </c>
@@ -10153,7 +10154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B150">
         <v>1</v>
       </c>
@@ -10218,7 +10219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B151">
         <v>1</v>
       </c>
@@ -10283,7 +10284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B152">
         <v>1</v>
       </c>
@@ -10348,7 +10349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B153">
         <v>1</v>
       </c>
@@ -10413,7 +10414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B154">
         <v>1</v>
       </c>
@@ -10478,7 +10479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B155">
         <v>1</v>
       </c>
@@ -10540,10 +10541,10 @@
         <v>0.241878024064418</v>
       </c>
       <c r="V155">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="2:22" x14ac:dyDescent="0.2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="156" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B156">
         <v>1</v>
       </c>
@@ -10605,10 +10606,10 @@
         <v>0.141093755280599</v>
       </c>
       <c r="V156">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="2:22" x14ac:dyDescent="0.2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="157" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B157">
         <v>1</v>
       </c>
@@ -10673,7 +10674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B158">
         <v>1</v>
       </c>
@@ -10738,7 +10739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B159">
         <v>1</v>
       </c>
@@ -10803,7 +10804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B160">
         <v>1</v>
       </c>
@@ -10868,7 +10869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B161">
         <v>1</v>
       </c>
@@ -10933,7 +10934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B162">
         <v>1</v>
       </c>
@@ -10998,7 +10999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B163">
         <v>1</v>
       </c>
@@ -11063,7 +11064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B164">
         <v>1</v>
       </c>
@@ -11128,7 +11129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B165">
         <v>1</v>
       </c>
@@ -11190,10 +11191,10 @@
         <v>0.92444254855185504</v>
       </c>
       <c r="V165">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="2:22" x14ac:dyDescent="0.2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="166" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B166">
         <v>1</v>
       </c>
@@ -11258,7 +11259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B167">
         <v>1</v>
       </c>
@@ -11323,7 +11324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B168">
         <v>1</v>
       </c>
@@ -11388,7 +11389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B169">
         <v>1</v>
       </c>
@@ -11453,7 +11454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B170">
         <v>1</v>
       </c>
@@ -11515,10 +11516,10 @@
         <v>0.41293883507864299</v>
       </c>
       <c r="V170">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="2:22" x14ac:dyDescent="0.2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="171" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B171">
         <v>1</v>
       </c>
@@ -11583,7 +11584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B172">
         <v>1</v>
       </c>
@@ -11648,7 +11649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B173">
         <v>1</v>
       </c>
@@ -11713,7 +11714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B174">
         <v>1</v>
       </c>
@@ -11778,7 +11779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B175">
         <v>1</v>
       </c>
@@ -11843,7 +11844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B176">
         <v>1</v>
       </c>
@@ -11908,7 +11909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B177">
         <v>1</v>
       </c>
@@ -11973,7 +11974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="178" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B178">
         <v>1</v>
       </c>
@@ -12035,10 +12036,10 @@
         <v>0.72663058795215896</v>
       </c>
       <c r="V178">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="2:22" x14ac:dyDescent="0.2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="179" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B179">
         <v>1</v>
       </c>
@@ -12103,7 +12104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="180" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B180">
         <v>1</v>
       </c>
@@ -12168,7 +12169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="181" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B181">
         <v>1</v>
       </c>
@@ -12233,7 +12234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="182" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B182">
         <v>2</v>
       </c>
@@ -12298,7 +12299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="183" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B183">
         <v>2</v>
       </c>
@@ -12363,7 +12364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="184" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B184">
         <v>2</v>
       </c>
@@ -12428,7 +12429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="185" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B185">
         <v>2</v>
       </c>
@@ -12490,10 +12491,10 @@
         <v>0.97791808625657295</v>
       </c>
       <c r="V185">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="2:22" x14ac:dyDescent="0.2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="186" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B186">
         <v>2</v>
       </c>
@@ -12558,7 +12559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="187" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B187">
         <v>2</v>
       </c>
@@ -12623,7 +12624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="188" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B188">
         <v>2</v>
       </c>
@@ -12688,7 +12689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="189" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B189">
         <v>2</v>
       </c>
@@ -12753,7 +12754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="190" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B190">
         <v>2</v>
       </c>
@@ -12818,7 +12819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="191" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B191">
         <v>2</v>
       </c>
@@ -12883,7 +12884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="192" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B192">
         <v>2</v>
       </c>
@@ -12948,7 +12949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="193" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B193">
         <v>2</v>
       </c>
@@ -13013,7 +13014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="194" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B194">
         <v>2</v>
       </c>
@@ -13078,7 +13079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="195" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B195">
         <v>2</v>
       </c>
@@ -13143,7 +13144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="196" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B196">
         <v>2</v>
       </c>
@@ -13208,7 +13209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="197" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B197">
         <v>2</v>
       </c>
@@ -13270,10 +13271,10 @@
         <v>0.72623101012367297</v>
       </c>
       <c r="V197">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="2:22" x14ac:dyDescent="0.2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="198" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B198">
         <v>2</v>
       </c>
@@ -13338,7 +13339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="199" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B199">
         <v>2</v>
       </c>
@@ -13403,7 +13404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="200" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B200">
         <v>2</v>
       </c>
@@ -13468,7 +13469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="201" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B201">
         <v>2</v>
       </c>
@@ -13533,7 +13534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="202" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B202">
         <v>2</v>
       </c>
@@ -13598,7 +13599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="203" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B203">
         <v>2</v>
       </c>
@@ -13663,7 +13664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="204" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B204">
         <v>2</v>
       </c>
@@ -13728,7 +13729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="205" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B205">
         <v>2</v>
       </c>
@@ -13793,7 +13794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="206" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B206">
         <v>2</v>
       </c>
@@ -13858,7 +13859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="207" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B207">
         <v>2</v>
       </c>
@@ -13920,10 +13921,10 @@
         <v>0.91716222106996503</v>
       </c>
       <c r="V207">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="2:22" x14ac:dyDescent="0.2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="208" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B208">
         <v>2</v>
       </c>
@@ -13988,7 +13989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="209" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B209">
         <v>2</v>
       </c>
@@ -14053,7 +14054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="210" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B210">
         <v>2</v>
       </c>
@@ -14118,7 +14119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="211" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B211">
         <v>2</v>
       </c>
@@ -14183,7 +14184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="212" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B212">
         <v>2</v>
       </c>
@@ -14248,7 +14249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="213" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B213">
         <v>2</v>
       </c>
@@ -14313,7 +14314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="214" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B214">
         <v>2</v>
       </c>
@@ -14378,7 +14379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="215" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B215">
         <v>2</v>
       </c>
@@ -14443,7 +14444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="216" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B216">
         <v>2</v>
       </c>
@@ -14508,7 +14509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="217" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B217">
         <v>2</v>
       </c>
@@ -14573,7 +14574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="218" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B218">
         <v>2</v>
       </c>
@@ -14635,10 +14636,10 @@
         <v>0.82457351485888097</v>
       </c>
       <c r="V218">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="2:22" x14ac:dyDescent="0.2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="219" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B219">
         <v>2</v>
       </c>
@@ -14703,7 +14704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="220" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B220">
         <v>2</v>
       </c>
@@ -14768,7 +14769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="221" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B221">
         <v>2</v>
       </c>
@@ -14830,10 +14831,10 @@
         <v>3.9751449572698501E-2</v>
       </c>
       <c r="V221">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="2:22" x14ac:dyDescent="0.2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="222" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B222">
         <v>2</v>
       </c>
@@ -14898,7 +14899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="223" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B223">
         <v>2</v>
       </c>
@@ -14963,7 +14964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="224" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B224">
         <v>2</v>
       </c>
@@ -15028,7 +15029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="225" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B225">
         <v>2</v>
       </c>
@@ -15093,7 +15094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="226" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B226">
         <v>2</v>
       </c>
@@ -15158,7 +15159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="227" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B227">
         <v>2</v>
       </c>
@@ -15223,7 +15224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="228" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B228">
         <v>2</v>
       </c>
@@ -15288,7 +15289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="229" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B229">
         <v>2</v>
       </c>
@@ -15353,7 +15354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="230" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B230">
         <v>2</v>
       </c>
@@ -15418,7 +15419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="231" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B231">
         <v>2</v>
       </c>
@@ -15483,7 +15484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="232" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B232">
         <v>2</v>
       </c>
@@ -15548,7 +15549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="233" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B233">
         <v>2</v>
       </c>
@@ -15613,7 +15614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="234" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B234">
         <v>2</v>
       </c>
@@ -15678,7 +15679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="235" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B235">
         <v>2</v>
       </c>
@@ -15743,7 +15744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="236" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B236">
         <v>2</v>
       </c>
@@ -15808,7 +15809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="237" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B237">
         <v>2</v>
       </c>
@@ -15873,7 +15874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="238" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B238">
         <v>2</v>
       </c>
@@ -15938,7 +15939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="239" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B239">
         <v>2</v>
       </c>
@@ -16003,7 +16004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="240" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B240">
         <v>2</v>
       </c>
@@ -16068,7 +16069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="241" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B241">
         <v>2</v>
       </c>
@@ -16133,7 +16134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="242" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B242">
         <v>2</v>
       </c>
@@ -16198,7 +16199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="243" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B243">
         <v>2</v>
       </c>
@@ -16263,7 +16264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="244" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B244">
         <v>2</v>
       </c>
@@ -16328,7 +16329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="245" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B245">
         <v>2</v>
       </c>
@@ -16393,7 +16394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="246" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B246">
         <v>2</v>
       </c>
@@ -16458,7 +16459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="247" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B247">
         <v>2</v>
       </c>
@@ -16523,7 +16524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="248" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B248">
         <v>2</v>
       </c>
@@ -16588,7 +16589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="249" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B249">
         <v>2</v>
       </c>
@@ -16653,7 +16654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="250" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B250">
         <v>2</v>
       </c>
@@ -16718,7 +16719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="251" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B251">
         <v>2</v>
       </c>
@@ -16783,7 +16784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="252" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B252">
         <v>2</v>
       </c>
@@ -16848,7 +16849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="253" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B253">
         <v>2</v>
       </c>
@@ -16913,7 +16914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="254" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B254">
         <v>2</v>
       </c>
@@ -16978,7 +16979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="255" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B255">
         <v>2</v>
       </c>
@@ -17043,7 +17044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="256" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B256">
         <v>2</v>
       </c>
@@ -17108,7 +17109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="257" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B257">
         <v>2</v>
       </c>
@@ -17173,7 +17174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="258" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B258">
         <v>2</v>
       </c>
@@ -17238,7 +17239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="259" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B259">
         <v>2</v>
       </c>
@@ -17303,7 +17304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="260" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B260">
         <v>2</v>
       </c>
@@ -17368,7 +17369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="261" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B261">
         <v>2</v>
       </c>
@@ -17433,7 +17434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="262" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B262">
         <v>2</v>
       </c>
@@ -17498,7 +17499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="263" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B263">
         <v>2</v>
       </c>
@@ -17563,7 +17564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="264" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B264">
         <v>2</v>
       </c>
@@ -17628,7 +17629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="265" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B265">
         <v>2</v>
       </c>
@@ -17693,7 +17694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="266" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B266">
         <v>2</v>
       </c>
@@ -17758,7 +17759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="267" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B267">
         <v>2</v>
       </c>
@@ -17823,7 +17824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="268" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B268">
         <v>2</v>
       </c>
@@ -17888,7 +17889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="269" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B269">
         <v>2</v>
       </c>
@@ -17953,7 +17954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="270" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B270">
         <v>2</v>
       </c>
@@ -18018,7 +18019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="271" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B271">
         <v>2</v>
       </c>
@@ -18083,7 +18084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="272" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B272">
         <v>2</v>
       </c>
@@ -18148,7 +18149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="273" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B273">
         <v>2</v>
       </c>
@@ -18210,10 +18211,10 @@
         <v>0.48080114746569702</v>
       </c>
       <c r="V273">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="274" spans="2:22" x14ac:dyDescent="0.2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="274" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B274">
         <v>2</v>
       </c>
@@ -18278,7 +18279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="275" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B275">
         <v>2</v>
       </c>
@@ -18343,7 +18344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="276" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B276">
         <v>2</v>
       </c>
@@ -18408,7 +18409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="277" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B277">
         <v>2</v>
       </c>
@@ -18473,7 +18474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="278" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B278">
         <v>2</v>
       </c>
@@ -18538,7 +18539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="279" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B279">
         <v>2</v>
       </c>
@@ -18600,10 +18601,10 @@
         <v>0.12798261093622401</v>
       </c>
       <c r="V279">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="280" spans="2:22" x14ac:dyDescent="0.2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="280" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B280">
         <v>2</v>
       </c>
@@ -18668,7 +18669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="281" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B281">
         <v>2</v>
       </c>
@@ -18733,7 +18734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="282" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B282">
         <v>2</v>
       </c>
@@ -18798,7 +18799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="283" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B283">
         <v>2</v>
       </c>
@@ -18863,7 +18864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="284" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B284">
         <v>2</v>
       </c>
@@ -18928,7 +18929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="285" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B285">
         <v>2</v>
       </c>
@@ -18993,7 +18994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="286" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B286">
         <v>2</v>
       </c>
@@ -19058,7 +19059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="287" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B287">
         <v>2</v>
       </c>
@@ -19123,7 +19124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="288" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B288">
         <v>2</v>
       </c>
@@ -19188,7 +19189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="289" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B289">
         <v>2</v>
       </c>
@@ -19253,7 +19254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="290" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B290">
         <v>2</v>
       </c>
@@ -19318,7 +19319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="291" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B291">
         <v>2</v>
       </c>
@@ -19383,7 +19384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="292" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B292">
         <v>2</v>
       </c>
@@ -19448,7 +19449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="293" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B293">
         <v>2</v>
       </c>
@@ -19510,10 +19511,10 @@
         <v>0.104409731220867</v>
       </c>
       <c r="V293">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="294" spans="2:22" x14ac:dyDescent="0.2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="294" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B294">
         <v>2</v>
       </c>
@@ -19578,7 +19579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="295" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B295">
         <v>2</v>
       </c>
@@ -19643,7 +19644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="296" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B296">
         <v>2</v>
       </c>
@@ -19708,7 +19709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="297" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B297">
         <v>2</v>
       </c>
@@ -19770,10 +19771,10 @@
         <v>0.73686379257641299</v>
       </c>
       <c r="V297">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="298" spans="2:22" x14ac:dyDescent="0.2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="298" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B298">
         <v>2</v>
       </c>
@@ -19838,7 +19839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="299" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B299">
         <v>2</v>
       </c>
@@ -19903,7 +19904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="300" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B300">
         <v>2</v>
       </c>
@@ -19968,7 +19969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="301" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B301">
         <v>2</v>
       </c>
@@ -20033,7 +20034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="302" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B302">
         <v>2</v>
       </c>
@@ -20098,7 +20099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="303" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B303">
         <v>2</v>
       </c>
@@ -20163,7 +20164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="304" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B304">
         <v>2</v>
       </c>
@@ -20228,7 +20229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="305" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B305">
         <v>2</v>
       </c>
@@ -20293,7 +20294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="306" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B306">
         <v>2</v>
       </c>
@@ -20355,10 +20356,10 @@
         <v>0.29861285141798499</v>
       </c>
       <c r="V306">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="307" spans="2:22" x14ac:dyDescent="0.2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="307" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B307">
         <v>2</v>
       </c>
@@ -20423,7 +20424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="308" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B308">
         <v>2</v>
       </c>
@@ -20488,7 +20489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="309" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B309">
         <v>2</v>
       </c>
@@ -20553,7 +20554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="310" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B310">
         <v>2</v>
       </c>
@@ -20618,7 +20619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="311" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B311">
         <v>2</v>
       </c>
@@ -20683,7 +20684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="312" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B312">
         <v>2</v>
       </c>
@@ -20748,7 +20749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="313" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B313">
         <v>2</v>
       </c>
@@ -20813,7 +20814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="314" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B314">
         <v>2</v>
       </c>
@@ -20878,7 +20879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="315" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B315">
         <v>2</v>
       </c>
@@ -20943,7 +20944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="316" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B316">
         <v>2</v>
       </c>
@@ -21008,7 +21009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="317" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B317">
         <v>2</v>
       </c>
@@ -21070,10 +21071,10 @@
         <v>0.62559566248285803</v>
       </c>
       <c r="V317">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="318" spans="2:22" x14ac:dyDescent="0.2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="318" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B318">
         <v>2</v>
       </c>
@@ -21138,7 +21139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="319" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B319">
         <v>2</v>
       </c>
@@ -21203,7 +21204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="320" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B320">
         <v>2</v>
       </c>
@@ -21268,7 +21269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="321" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B321">
         <v>2</v>
       </c>
@@ -21333,7 +21334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="322" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B322">
         <v>2</v>
       </c>
@@ -21398,7 +21399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="323" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B323">
         <v>2</v>
       </c>
@@ -21463,7 +21464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="324" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B324">
         <v>2</v>
       </c>
@@ -21528,7 +21529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="325" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B325">
         <v>2</v>
       </c>
@@ -21593,7 +21594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="326" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B326">
         <v>2</v>
       </c>
@@ -21658,7 +21659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="327" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B327">
         <v>2</v>
       </c>
@@ -21723,7 +21724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="328" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B328">
         <v>2</v>
       </c>
@@ -21788,7 +21789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="329" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B329">
         <v>2</v>
       </c>
@@ -21853,7 +21854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="330" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B330">
         <v>2</v>
       </c>
@@ -21918,7 +21919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="331" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B331">
         <v>2</v>
       </c>
@@ -21983,7 +21984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="332" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B332">
         <v>2</v>
       </c>
@@ -22048,7 +22049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="333" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B333">
         <v>2</v>
       </c>
@@ -22113,7 +22114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="334" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B334">
         <v>2</v>
       </c>
@@ -22178,7 +22179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="335" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B335">
         <v>2</v>
       </c>
@@ -22243,7 +22244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="336" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B336">
         <v>2</v>
       </c>
@@ -22308,7 +22309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="337" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B337">
         <v>2</v>
       </c>
@@ -22373,7 +22374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="338" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B338">
         <v>2</v>
       </c>
@@ -22438,7 +22439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="339" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B339">
         <v>2</v>
       </c>
@@ -22503,7 +22504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="340" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B340">
         <v>2</v>
       </c>
@@ -22568,7 +22569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="341" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B341">
         <v>2</v>
       </c>
@@ -22630,10 +22631,10 @@
         <v>0.99071249900929004</v>
       </c>
       <c r="V341">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="342" spans="2:22" x14ac:dyDescent="0.2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="342" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B342">
         <v>2</v>
       </c>
@@ -22698,7 +22699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="343" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B343">
         <v>2</v>
       </c>
@@ -22763,7 +22764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="344" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B344">
         <v>2</v>
       </c>
@@ -22828,7 +22829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="345" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B345">
         <v>2</v>
       </c>
@@ -22893,7 +22894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="346" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B346">
         <v>2</v>
       </c>
@@ -22958,7 +22959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="347" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B347">
         <v>2</v>
       </c>
@@ -23023,7 +23024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="348" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B348">
         <v>2</v>
       </c>
@@ -23088,7 +23089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="349" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B349">
         <v>2</v>
       </c>
@@ -23153,7 +23154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="350" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B350">
         <v>2</v>
       </c>
@@ -23218,7 +23219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="351" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B351">
         <v>2</v>
       </c>
@@ -23283,7 +23284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="352" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B352">
         <v>2</v>
       </c>
@@ -23348,7 +23349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="353" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B353">
         <v>2</v>
       </c>
@@ -23413,7 +23414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="354" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B354">
         <v>2</v>
       </c>
@@ -23478,7 +23479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="355" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B355">
         <v>2</v>
       </c>
@@ -23543,7 +23544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="356" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B356">
         <v>2</v>
       </c>
@@ -23608,7 +23609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="357" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B357">
         <v>2</v>
       </c>
@@ -23673,7 +23674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="358" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B358">
         <v>2</v>
       </c>
@@ -23738,7 +23739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="359" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B359">
         <v>2</v>
       </c>
@@ -23803,7 +23804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="360" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B360">
         <v>2</v>
       </c>
@@ -23868,7 +23869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="361" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B361">
         <v>2</v>
       </c>
@@ -23933,7 +23934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="362" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B362">
         <v>3</v>
       </c>
@@ -23998,7 +23999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="363" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B363">
         <v>3</v>
       </c>
@@ -24063,7 +24064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="364" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B364">
         <v>3</v>
       </c>
@@ -24128,7 +24129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="365" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B365">
         <v>3</v>
       </c>
@@ -24193,7 +24194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="366" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B366">
         <v>3</v>
       </c>
@@ -24258,7 +24259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="367" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B367">
         <v>3</v>
       </c>
@@ -24320,10 +24321,10 @@
         <v>0.89738124243837403</v>
       </c>
       <c r="V367">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="368" spans="2:22" x14ac:dyDescent="0.2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="368" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B368">
         <v>3</v>
       </c>
@@ -24388,7 +24389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="369" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B369">
         <v>3</v>
       </c>
@@ -24453,7 +24454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="370" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B370">
         <v>3</v>
       </c>
@@ -24518,7 +24519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="371" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B371">
         <v>3</v>
       </c>
@@ -24583,7 +24584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="372" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B372">
         <v>3</v>
       </c>
@@ -24648,7 +24649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="373" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B373">
         <v>3</v>
       </c>
@@ -24713,7 +24714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="374" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B374">
         <v>3</v>
       </c>
@@ -24778,7 +24779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="375" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B375">
         <v>3</v>
       </c>
@@ -24843,7 +24844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="376" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B376">
         <v>3</v>
       </c>
@@ -24908,7 +24909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="377" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B377">
         <v>3</v>
       </c>
@@ -24973,7 +24974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="378" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B378">
         <v>3</v>
       </c>
@@ -25035,10 +25036,10 @@
         <v>0.375444252631213</v>
       </c>
       <c r="V378">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="379" spans="2:22" x14ac:dyDescent="0.2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="379" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B379">
         <v>3</v>
       </c>
@@ -25103,7 +25104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="380" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B380">
         <v>3</v>
       </c>
@@ -25168,7 +25169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="381" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B381">
         <v>3</v>
       </c>
@@ -25233,7 +25234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="382" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B382">
         <v>3</v>
       </c>
@@ -25298,7 +25299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="383" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B383">
         <v>3</v>
       </c>
@@ -25363,7 +25364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="384" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B384">
         <v>3</v>
       </c>
@@ -25428,7 +25429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="385" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B385">
         <v>3</v>
       </c>
@@ -25493,7 +25494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="386" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B386">
         <v>3</v>
       </c>
@@ -25558,7 +25559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="387" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B387">
         <v>3</v>
       </c>
@@ -25623,7 +25624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="388" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="388" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B388">
         <v>3</v>
       </c>
@@ -25685,10 +25686,10 @@
         <v>0.60179318564737005</v>
       </c>
       <c r="V388">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="389" spans="2:22" x14ac:dyDescent="0.2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="389" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B389">
         <v>3</v>
       </c>
@@ -25753,7 +25754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="390" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B390">
         <v>3</v>
       </c>
@@ -25818,7 +25819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="391" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="391" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B391">
         <v>3</v>
       </c>
@@ -25883,7 +25884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="392" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B392">
         <v>3</v>
       </c>
@@ -25948,7 +25949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="393" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B393">
         <v>3</v>
       </c>
@@ -26013,7 +26014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="394" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B394">
         <v>3</v>
       </c>
@@ -26078,7 +26079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="395" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B395">
         <v>3</v>
       </c>
@@ -26143,7 +26144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="396" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B396">
         <v>3</v>
       </c>
@@ -26208,7 +26209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="397" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B397">
         <v>3</v>
       </c>
@@ -26273,7 +26274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="398" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B398">
         <v>3</v>
       </c>
@@ -26338,7 +26339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="399" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B399">
         <v>3</v>
       </c>
@@ -26403,7 +26404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="400" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B400">
         <v>3</v>
       </c>
@@ -26468,7 +26469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="401" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B401">
         <v>3</v>
       </c>
@@ -26533,7 +26534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="402" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B402">
         <v>3</v>
       </c>
@@ -26598,7 +26599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="403" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B403">
         <v>3</v>
       </c>
@@ -26663,7 +26664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="404" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B404">
         <v>3</v>
       </c>
@@ -26728,7 +26729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="405" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="405" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B405">
         <v>3</v>
       </c>
@@ -26790,10 +26791,10 @@
         <v>0.184221983539302</v>
       </c>
       <c r="V405">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="406" spans="2:22" x14ac:dyDescent="0.2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="406" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B406">
         <v>3</v>
       </c>
@@ -26858,7 +26859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="407" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="407" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B407">
         <v>3</v>
       </c>
@@ -26923,7 +26924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="408" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B408">
         <v>3</v>
       </c>
@@ -26988,7 +26989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="409" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="409" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B409">
         <v>3</v>
       </c>
@@ -27053,7 +27054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="410" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="410" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B410">
         <v>3</v>
       </c>
@@ -27118,7 +27119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="411" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B411">
         <v>3</v>
       </c>
@@ -27183,7 +27184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="412" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="412" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B412">
         <v>3</v>
       </c>
@@ -27248,7 +27249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="413" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="413" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B413">
         <v>3</v>
       </c>
@@ -27313,7 +27314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="414" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="414" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B414">
         <v>3</v>
       </c>
@@ -27378,7 +27379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="415" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B415">
         <v>3</v>
       </c>
@@ -27443,7 +27444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="416" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="416" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B416">
         <v>3</v>
       </c>
@@ -27508,7 +27509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="417" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B417">
         <v>3</v>
       </c>
@@ -27573,7 +27574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="418" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="418" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B418">
         <v>3</v>
       </c>
@@ -27638,7 +27639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="419" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="419" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B419">
         <v>3</v>
       </c>
@@ -27703,7 +27704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="420" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="420" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B420">
         <v>3</v>
       </c>
@@ -27768,7 +27769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="421" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B421">
         <v>3</v>
       </c>
@@ -27830,10 +27831,10 @@
         <v>0.84392112954260901</v>
       </c>
       <c r="V421">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="422" spans="2:22" x14ac:dyDescent="0.2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="422" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B422">
         <v>3</v>
       </c>
@@ -27898,7 +27899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="423" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="423" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B423">
         <v>3</v>
       </c>
@@ -27963,7 +27964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="424" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="424" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B424">
         <v>3</v>
       </c>
@@ -28028,7 +28029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="425" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="425" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B425">
         <v>3</v>
       </c>
@@ -28093,7 +28094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="426" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="426" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B426">
         <v>3</v>
       </c>
@@ -28158,7 +28159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="427" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B427">
         <v>3</v>
       </c>
@@ -28223,7 +28224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="428" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="428" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B428">
         <v>3</v>
       </c>
@@ -28288,7 +28289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="429" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B429">
         <v>3</v>
       </c>
@@ -28353,7 +28354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="430" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B430">
         <v>3</v>
       </c>
@@ -28418,7 +28419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="431" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B431">
         <v>3</v>
       </c>
@@ -28483,7 +28484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="432" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="432" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B432">
         <v>3</v>
       </c>
@@ -28548,7 +28549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="433" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="433" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B433">
         <v>3</v>
       </c>
@@ -28613,7 +28614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="434" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="434" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B434">
         <v>3</v>
       </c>
@@ -28675,10 +28676,10 @@
         <v>5.5649655784428501E-2</v>
       </c>
       <c r="V434">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="435" spans="2:22" x14ac:dyDescent="0.2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="435" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B435">
         <v>3</v>
       </c>
@@ -28743,7 +28744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="436" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="436" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B436">
         <v>3</v>
       </c>
@@ -28808,7 +28809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="437" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="437" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B437">
         <v>3</v>
       </c>
@@ -28873,7 +28874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="438" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="438" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B438">
         <v>3</v>
       </c>
@@ -28938,7 +28939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="439" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="439" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B439">
         <v>3</v>
       </c>
@@ -29003,7 +29004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="440" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="440" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B440">
         <v>3</v>
       </c>
@@ -29068,7 +29069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="441" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="441" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B441">
         <v>3</v>
       </c>
@@ -29133,7 +29134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="442" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="442" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B442">
         <v>3</v>
       </c>
@@ -29198,7 +29199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="443" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="443" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B443">
         <v>3</v>
       </c>
@@ -29263,7 +29264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="444" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="444" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B444">
         <v>3</v>
       </c>
@@ -29328,7 +29329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="445" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="445" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B445">
         <v>3</v>
       </c>
@@ -29393,7 +29394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="446" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="446" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B446">
         <v>3</v>
       </c>
@@ -29458,7 +29459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="447" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="447" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B447">
         <v>3</v>
       </c>
@@ -29523,7 +29524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="448" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="448" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B448">
         <v>3</v>
       </c>
@@ -29588,7 +29589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="449" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="449" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B449">
         <v>3</v>
       </c>
@@ -29650,10 +29651,10 @@
         <v>0.70375762696688304</v>
       </c>
       <c r="V449">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="450" spans="2:22" x14ac:dyDescent="0.2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="450" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B450">
         <v>3</v>
       </c>
@@ -29718,7 +29719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="451" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="451" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B451">
         <v>3</v>
       </c>
@@ -29783,7 +29784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="452" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="452" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B452">
         <v>3</v>
       </c>
@@ -29848,7 +29849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="453" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="453" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B453">
         <v>3</v>
       </c>
@@ -29913,7 +29914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="454" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="454" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B454">
         <v>3</v>
       </c>
@@ -29978,7 +29979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="455" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="455" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B455">
         <v>3</v>
       </c>
@@ -30043,7 +30044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="456" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="456" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B456">
         <v>3</v>
       </c>
@@ -30108,7 +30109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="457" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="457" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B457">
         <v>3</v>
       </c>
@@ -30173,7 +30174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="458" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="458" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B458">
         <v>3</v>
       </c>
@@ -30235,10 +30236,10 @@
         <v>0.234213598172128</v>
       </c>
       <c r="V458">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="459" spans="2:22" x14ac:dyDescent="0.2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="459" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B459">
         <v>3</v>
       </c>
@@ -30303,7 +30304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="460" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="460" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B460">
         <v>3</v>
       </c>
@@ -30368,7 +30369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="461" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="461" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B461">
         <v>3</v>
       </c>
@@ -30433,7 +30434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="462" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="462" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B462">
         <v>3</v>
       </c>
@@ -30498,7 +30499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="463" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="463" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B463">
         <v>3</v>
       </c>
@@ -30563,7 +30564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="464" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="464" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B464">
         <v>3</v>
       </c>
@@ -30628,7 +30629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="465" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="465" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B465">
         <v>3</v>
       </c>
@@ -30693,7 +30694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="466" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="466" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B466">
         <v>3</v>
       </c>
@@ -30758,7 +30759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="467" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="467" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B467">
         <v>3</v>
       </c>
@@ -30823,7 +30824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="468" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="468" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B468">
         <v>3</v>
       </c>
@@ -30888,7 +30889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="469" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="469" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B469">
         <v>3</v>
       </c>
@@ -30953,7 +30954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="470" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="470" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B470">
         <v>3</v>
       </c>
@@ -31018,7 +31019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="471" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="471" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B471">
         <v>3</v>
       </c>
@@ -31083,7 +31084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="472" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="472" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B472">
         <v>3</v>
       </c>
@@ -31148,7 +31149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="473" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="473" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B473">
         <v>3</v>
       </c>
@@ -31213,7 +31214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="474" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="474" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B474">
         <v>3</v>
       </c>
@@ -31278,7 +31279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="475" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="475" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B475">
         <v>3</v>
       </c>
@@ -31343,7 +31344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="476" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="476" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B476">
         <v>3</v>
       </c>
@@ -31408,7 +31409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="477" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="477" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B477">
         <v>3</v>
       </c>
@@ -31473,7 +31474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="478" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="478" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B478">
         <v>3</v>
       </c>
@@ -31538,7 +31539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="479" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="479" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B479">
         <v>3</v>
       </c>
@@ -31603,7 +31604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="480" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="480" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B480">
         <v>3</v>
       </c>
@@ -31668,7 +31669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="481" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="481" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B481">
         <v>3</v>
       </c>
@@ -31730,10 +31731,10 @@
         <v>0.88308686743904297</v>
       </c>
       <c r="V481">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="482" spans="2:22" x14ac:dyDescent="0.2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="482" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B482">
         <v>3</v>
       </c>
@@ -31798,7 +31799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="483" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="483" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B483">
         <v>3</v>
       </c>
@@ -31863,7 +31864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="484" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="484" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B484">
         <v>3</v>
       </c>
@@ -31928,7 +31929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="485" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="485" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B485">
         <v>3</v>
       </c>
@@ -31993,7 +31994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="486" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="486" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B486">
         <v>3</v>
       </c>
@@ -32058,7 +32059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="487" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="487" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B487">
         <v>3</v>
       </c>
@@ -32123,7 +32124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="488" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="488" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B488">
         <v>3</v>
       </c>
@@ -32188,7 +32189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="489" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="489" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B489">
         <v>3</v>
       </c>
@@ -32253,7 +32254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="490" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="490" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B490">
         <v>3</v>
       </c>
@@ -32318,7 +32319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="491" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="491" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B491">
         <v>3</v>
       </c>
@@ -32383,7 +32384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="492" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="492" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B492">
         <v>3</v>
       </c>
@@ -32448,7 +32449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="493" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="493" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B493">
         <v>3</v>
       </c>
@@ -32513,7 +32514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="494" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="494" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B494">
         <v>3</v>
       </c>
@@ -32578,7 +32579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="495" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="495" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B495">
         <v>3</v>
       </c>
@@ -32643,7 +32644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="496" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="496" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B496">
         <v>3</v>
       </c>
@@ -32708,7 +32709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="497" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="497" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B497">
         <v>3</v>
       </c>
@@ -32773,7 +32774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="498" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="498" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B498">
         <v>3</v>
       </c>
@@ -32838,7 +32839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="499" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="499" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B499">
         <v>3</v>
       </c>
@@ -32903,7 +32904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="500" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="500" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B500">
         <v>3</v>
       </c>
@@ -32968,7 +32969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="501" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="501" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B501">
         <v>3</v>
       </c>
@@ -33033,7 +33034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="502" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="502" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B502">
         <v>3</v>
       </c>
@@ -33098,7 +33099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="503" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="503" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B503">
         <v>3</v>
       </c>
@@ -33163,7 +33164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="504" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="504" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B504">
         <v>3</v>
       </c>
@@ -33228,7 +33229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="505" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="505" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B505">
         <v>3</v>
       </c>
@@ -33293,7 +33294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="506" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="506" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B506">
         <v>3</v>
       </c>
@@ -33358,7 +33359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="507" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="507" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B507">
         <v>3</v>
       </c>
@@ -33423,7 +33424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="508" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="508" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B508">
         <v>3</v>
       </c>
@@ -33488,7 +33489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="509" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="509" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B509">
         <v>3</v>
       </c>
@@ -33550,10 +33551,10 @@
         <v>0.64402397533283595</v>
       </c>
       <c r="V509">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="510" spans="2:22" x14ac:dyDescent="0.2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="510" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B510">
         <v>3</v>
       </c>
@@ -33618,7 +33619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="511" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="511" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B511">
         <v>3</v>
       </c>
@@ -33683,7 +33684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="512" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="512" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B512">
         <v>3</v>
       </c>
@@ -33748,7 +33749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="513" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="513" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B513">
         <v>3</v>
       </c>
@@ -33813,7 +33814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="514" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="514" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B514">
         <v>3</v>
       </c>
@@ -33878,7 +33879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="515" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="515" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B515">
         <v>3</v>
       </c>
@@ -33943,7 +33944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="516" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="516" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B516">
         <v>3</v>
       </c>
@@ -34005,10 +34006,10 @@
         <v>0.399201026000082</v>
       </c>
       <c r="V516">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="517" spans="2:22" x14ac:dyDescent="0.2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="517" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B517">
         <v>3</v>
       </c>
@@ -34073,7 +34074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="518" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="518" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B518">
         <v>3</v>
       </c>
@@ -34138,7 +34139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="519" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="519" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B519">
         <v>3</v>
       </c>
@@ -34203,7 +34204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="520" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="520" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B520">
         <v>3</v>
       </c>
@@ -34268,7 +34269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="521" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="521" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B521">
         <v>3</v>
       </c>
@@ -34333,7 +34334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="522" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="522" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B522">
         <v>3</v>
       </c>
@@ -34398,7 +34399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="523" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="523" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B523">
         <v>3</v>
       </c>
@@ -34463,7 +34464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="524" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="524" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B524">
         <v>3</v>
       </c>
@@ -34528,7 +34529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="525" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="525" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B525">
         <v>3</v>
       </c>
@@ -34593,7 +34594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="526" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="526" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B526">
         <v>3</v>
       </c>
@@ -34658,7 +34659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="527" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="527" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B527">
         <v>3</v>
       </c>
@@ -34720,10 +34721,10 @@
         <v>0.71390947172185404</v>
       </c>
       <c r="V527">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="528" spans="2:22" x14ac:dyDescent="0.2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="528" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B528">
         <v>3</v>
       </c>
@@ -34788,7 +34789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="529" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="529" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B529">
         <v>3</v>
       </c>
@@ -34853,7 +34854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="530" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="530" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B530">
         <v>3</v>
       </c>
@@ -34918,7 +34919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="531" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="531" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B531">
         <v>3</v>
       </c>
@@ -34983,7 +34984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="532" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="532" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B532">
         <v>3</v>
       </c>
@@ -35048,7 +35049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="533" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="533" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B533">
         <v>3</v>
       </c>
@@ -35113,7 +35114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="534" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="534" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B534">
         <v>3</v>
       </c>
@@ -35175,10 +35176,10 @@
         <v>0.88656034271569095</v>
       </c>
       <c r="V534">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="535" spans="2:22" x14ac:dyDescent="0.2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="535" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B535">
         <v>3</v>
       </c>
@@ -35243,7 +35244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="536" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="536" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B536">
         <v>3</v>
       </c>
@@ -35308,7 +35309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="537" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="537" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B537">
         <v>3</v>
       </c>
@@ -35373,7 +35374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="538" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="538" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B538">
         <v>3</v>
       </c>
@@ -35435,10 +35436,10 @@
         <v>0.142564600129197</v>
       </c>
       <c r="V538">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="539" spans="2:22" x14ac:dyDescent="0.2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="539" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B539">
         <v>3</v>
       </c>
@@ -35503,7 +35504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="540" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="540" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B540">
         <v>3</v>
       </c>
@@ -35568,7 +35569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="541" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="541" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B541">
         <v>3</v>
       </c>
